--- a/pred_ohlcv/54_21/2020-01-16 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 IPX ohlcv.xlsx
@@ -8244,7 +8244,7 @@
         <v>32966.471303406</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>32966.471303406</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>18496.850303406</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>19206.156503406</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-123417.478877986</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-123417.478877986</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-364596.315377986</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-364596.315377986</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-364596.315377986</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-364596.315377986</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-364596.315377986</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-365940.238677986</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-365964.238677986</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-367149.898277986</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-367149.898277986</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H742">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H744">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-354066.509077986</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-354066.509077986</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-353064.949877986</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-353064.949877986</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-353064.949877986</v>
       </c>
       <c r="H754">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-357656.451977986</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-355093.806877986</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-364910.510977986</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-363674.183477986</v>
       </c>
       <c r="H758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-364210.380177986</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-365661.604277986</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-364396.754177986</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-365693.187577986</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-365156.147277986</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-366401.229477986</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H777">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H778">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H779">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H794">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-369001.674842394</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-378684.1924968848</v>
       </c>
       <c r="H846">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-378684.1924968848</v>
       </c>
       <c r="H847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-377891.0744968848</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-377354.0341968848</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-377354.0341968848</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-377354.0341968848</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-377354.0341968848</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-377354.0341968848</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-377354.0341968848</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-377354.0341968848</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-377354.0341968848</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-377354.0341968848</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-377354.0341968848</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-379085.0818797848</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-372506.3007797848</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-387849.8649594428</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-314442.3676797848</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-316272.0111797848</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-316272.0111797848</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-335900.4125797848</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H926">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H927">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H928">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H929">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H930">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-341137.2288797848</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-341137.2288797848</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-341674.2691797848</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-351557.1710797848</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-351557.1710797848</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-351557.1710797848</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-351557.1710797848</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-320607.7998797848</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-318290.9687797848</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-318290.9687797848</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-318290.9687797848</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-306041.7933797848</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1004">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1005">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1006">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-333682.7805797848</v>
       </c>
       <c r="H1007">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1008">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1010">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1012">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 IPX ohlcv.xlsx
@@ -7464,7 +7464,7 @@
         <v>78021.86590090099</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>78021.86590090099</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>78021.86590090099</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>78021.86590090099</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>79632.98710090098</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>78339.05130090097</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>80258.80940090098</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>78980.13260090098</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>78980.13260090098</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>78980.13260090098</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>77736.62110090099</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>75318.84270090099</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>77716.908203406</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>79026.544303406</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>79026.544303406</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>77952.463503406</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>77952.463503406</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>56476.34590340601</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>57762.22260340601</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>57762.22260340601</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>57762.22260340601</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>55448.284403406</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>55448.284403406</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>32966.471303406</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>32966.471303406</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>32966.471303406</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>32966.471303406</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>32966.471303406</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>18496.850303406</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>19206.156503406</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-123417.478877986</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-123417.478877986</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-364596.315377986</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-364596.315377986</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-364596.315377986</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-365940.238677986</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-365403.198377986</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-362889.409377986</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-367149.898277986</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-355321.689477986</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-354066.509077986</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-354066.509077986</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-354363.931077986</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-353064.949877986</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-353064.949877986</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-353064.949877986</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-353064.949877986</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-353064.949877986</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-357656.451977986</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-355093.806877986</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-364910.510977986</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-363674.183477986</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-363674.183477986</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-364210.380177986</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-366033.323777986</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-365661.604277986</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-364396.754177986</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-365693.187577986</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-365156.147277986</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-366401.229477986</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-365864.189177986</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-370411.011842394</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-368937.0995423939</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-368937.0995423939</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-368937.0995423939</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-370566.6622423939</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-370105.6202423939</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-373149.1377423939</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-372931.1842968849</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-374167.2878968849</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-374167.2878968849</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-374167.2878968849</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-374167.2878968849</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-374167.2878968849</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-374167.2878968849</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-374167.2878968849</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-374167.2878968849</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-374167.2878968849</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-374167.2878968849</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-372745.9630968849</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-374027.5156968849</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-373467.4285968849</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-374764.8627968849</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-374753.3393968849</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-375827.4199968849</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-375827.4199968849</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-375827.4199968849</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-375769.8029968849</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-376346.9084968849</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-377610.1118968849</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-378684.1924968848</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-378684.1924968848</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-372506.3007797848</v>
       </c>
       <c r="H875">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-387849.8649594428</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-326843.2404797847</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-322150.2639797847</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-314464.7791797848</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-314464.7791797848</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-314442.3676797848</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-316272.0111797848</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-316272.0111797848</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-335900.4125797848</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-335363.3722797848</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-341137.2288797848</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-341137.2288797848</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-341674.2691797848</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-358768.4126797848</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-356233.8286797848</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-361447.9109797848</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-361447.9109797848</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-360910.8706797848</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-360910.8706797848</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-360910.8706797848</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-360910.8706797848</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-359534.8897797848</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-358195.3837797848</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-359976.0005797848</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-349286.0098797848</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-348024.4481797848</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-344919.6668797847</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-344919.6668797847</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-344382.6265797847</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-345456.7072797847</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-343677.5173797847</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-346201.6894797847</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-359404.2302797848</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-358160.2786797848</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-358160.2786797848</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-358160.2786797848</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-358160.2786797848</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-358160.2786797848</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-358160.2786797848</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-358160.2786797848</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-358160.2786797848</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-358160.2786797848</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-351391.6821797848</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-352631.2517797848</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-351557.1710797848</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-351557.1710797848</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-351557.1710797848</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-351557.1710797848</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-351557.1710797848</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-351557.1710797848</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-320607.7998797848</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-318290.9687797848</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-318290.9687797848</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-318290.9687797848</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-306041.7933797848</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-307266.2659797848</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-333682.7805797848</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-332388.4223797848</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
